--- a/src/models/baselines/XGBoost/results/synthetic/position-topology/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/synthetic/position-topology/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7224446802215851</v>
+        <v>0.7369611273774668</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7258311427596581</v>
+        <v>0.7448996190158798</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D4" t="n">
-        <v>0.692023194576219</v>
+        <v>0.6952909183859696</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6989328533908267</v>
+        <v>0.7241872206522638</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6836987312242616</v>
+        <v>0.6997264758458789</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.725353920758477</v>
+        <v>0.7558505036902523</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="D8" t="n">
-        <v>0.714998996813608</v>
+        <v>0.7317267048217561</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.575</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.575</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7239840328999795</v>
+        <v>0.7246465893362988</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7489826443086458</v>
+        <v>0.7342720777520464</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.615</v>
+        <v>0.62</v>
       </c>
       <c r="C11" t="n">
-        <v>0.615</v>
+        <v>0.62</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7360222696043591</v>
+        <v>0.7636719569162617</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5820000000000001</v>
+        <v>0.589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5820000000000001</v>
+        <v>0.589</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717227246655762</v>
+        <v>0.7311233193794073</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02529822128134702</v>
+        <v>0.02816617356570348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02529822128134702</v>
+        <v>0.02816617356570348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02020357314875301</v>
+        <v>0.02176840952454005</v>
       </c>
     </row>
   </sheetData>
